--- a/数据整理/stocks/A股/深证主板/000968-蓝焰控股.xlsx
+++ b/数据整理/stocks/A股/深证主板/000968-蓝焰控股.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -773,7 +774,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -784,17 +785,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -804,13 +825,103 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>590003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中邮核心优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.95</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4782</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>7</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>3.43</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000968-蓝焰控股.xlsx
+++ b/数据整理/stocks/A股/深证主板/000968-蓝焰控股.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -868,7 +869,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -879,17 +880,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -899,14 +920,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>590003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中邮核心优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5979</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.48</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="3">
@@ -915,13 +1010,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>7</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>3.43</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000968-蓝焰控股.xlsx
+++ b/数据整理/stocks/A股/深证主板/000968-蓝焰控股.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -963,7 +964,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -974,17 +975,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -994,14 +1015,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.6</v>
+          <t>590003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中邮核心优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7110</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1010,14 +1053,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.48</v>
+          <t>410001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华富竞争力优选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1263</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1026,13 +1091,135 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>007713</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华富科技动能混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>7</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>3.43</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000968-蓝焰控股.xlsx
+++ b/数据整理/stocks/A股/深证主板/000968-蓝焰控股.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,319 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>011251</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华安聚嘉精选混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>59.25</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>78.75</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.81</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.0724</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.86</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010363</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>信达澳银匠心臻选两年持有期混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>51.41</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>85.95</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.7660</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>011252</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华安聚嘉精选混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>31.90</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>78.75</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.81</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.5774</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.48</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002601</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中银证券价值精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>7.59</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.29</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.70</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.5085</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>011269</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中银证券优势制造股票型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.25</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>6.61</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2532</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>010963</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>信达澳银周期动力混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>9.34</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.19</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.42</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.2260</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>011270</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中银证券优势制造股票型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.25</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>6.61</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0218</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.43</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -776,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -837,25 +615,101 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10.77</t>
+          <t>18.42</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>76.95</t>
+          <t>79.21</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4782</t>
+          <t>0.7110</t>
         </is>
       </c>
       <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>410001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华富竞争力优选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1263</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007713</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华富科技动能混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>8</v>
       </c>
     </row>
@@ -964,7 +818,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1025,101 +879,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>18.42</t>
+          <t>10.77</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>79.21</t>
+          <t>76.95</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.7110</t>
+          <t>0.4782</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>410001</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华富竞争力优选混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>86.26</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1263</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>007713</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华富科技动能混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>86.17</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0250</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1134,96 +912,318 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>011251</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安聚嘉精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>59.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0724</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010363</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信达澳银匠心臻选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>51.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7660</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011252</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安聚嘉精选混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>31.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5774</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>7</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.43</v>
+          <t>002601</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中银证券价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5085</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011269</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中银证券优势制造股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2532</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010963</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>信达澳银周期动力混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2260</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011270</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中银证券优势制造股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>